--- a/NEW HR/GARCIA, JINKY ANACAY.xlsx
+++ b/NEW HR/GARCIA, JINKY ANACAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>4/14,17/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/11,12/2023</t>
   </si>
 </sst>
 </file>
@@ -565,6 +571,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -577,20 +592,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,7 +1293,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1336,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1460,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1526,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1589,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1687,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1746,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1811,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1854,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1929,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2115,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2181,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2239,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2305,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2361,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2436,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2479,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2545,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2601,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2699,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2762,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3241,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,14 +3271,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3283,16 +3289,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>44743</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3305,14 +3311,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3338,18 +3344,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3396,7 +3402,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3406,7 +3412,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3640,15 +3646,17 @@
       <c r="B21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39">
         <v>2</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
@@ -3658,8 +3666,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -3668,10 +3680,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -4539,17 +4555,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4618,14 +4634,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4639,17 +4655,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44743</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4663,17 +4679,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4699,18 +4715,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/GARCIA, JINKY ANACAY.xlsx
+++ b/NEW HR/GARCIA, JINKY ANACAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>5/11,12/2023</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>5/22,23/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>06/13/25023</t>
+  </si>
+  <si>
+    <t>SL(7-0-0)</t>
   </si>
 </sst>
 </file>
@@ -571,15 +586,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -592,11 +598,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,7 +1308,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1351,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1415,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1475,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1541,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1604,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1702,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1761,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1826,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1869,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1944,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2130,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2196,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2254,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2320,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2376,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2451,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2494,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2560,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2616,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2714,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2777,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,9 +3254,9 @@
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,14 +3286,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3289,16 +3304,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>44743</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3311,14 +3326,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3344,18 +3361,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3402,7 +3419,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3412,7 +3429,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3691,9 +3708,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -3703,13 +3724,21 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>1</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -3719,11 +3748,15 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -3732,7 +3765,9 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>7</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
@@ -4555,17 +4590,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4634,14 +4669,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4655,17 +4690,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44743</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4679,17 +4714,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>SP</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4715,18 +4750,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/GARCIA, JINKY ANACAY.xlsx
+++ b/NEW HR/GARCIA, JINKY ANACAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>SL(7-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +584,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3254,9 +3260,9 @@
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,64 +3284,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>44743</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3361,18 +3367,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3419,7 +3425,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3429,7 +3435,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3689,13 +3695,15 @@
       <c r="B22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39">
         <v>2</v>
@@ -3735,15 +3743,17 @@
       <c r="B24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39">
         <v>1</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
+      <c r="G24" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
@@ -3773,15 +3783,19 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>45108</v>
+      </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
+      <c r="G26" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3789,24 +3803,36 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="39"/>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="39">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="49">
+        <v>45147</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -3815,10 +3841,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="49">
+        <v>45169</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
@@ -4660,71 +4690,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>GARCIA, JINKY ANACAY</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>44743</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>SP</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4750,18 +4780,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6827,17 +6857,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -6912,12 +6942,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
